--- a/data/HuntersGreenHomeSales_prepped.xlsx
+++ b/data/HuntersGreenHomeSales_prepped.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadb\Desktop\grad_school\.dev\.gitRepos\huntersGreen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{13D77C04-783E-4357-A330-56ABFBB07531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825FC2B-A879-435A-9B32-DCCF8658A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42170" yWindow="3160" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42170" yWindow="3160" windowWidth="28800" windowHeight="15410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HuntersGreenHomeSales-2" sheetId="1" r:id="rId1"/>
-    <sheet name="Desc" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Desc" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HuntersGreenHomeSales-2'!$A$1:$AG$483</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="1109">
   <si>
     <t>Status</t>
   </si>
@@ -2008,6 +2009,1362 @@
   </si>
   <si>
     <t>28.138338709847133,</t>
+  </si>
+  <si>
+    <t>17711 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17769  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17622  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18111 ASHTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9203  CELEBRATION CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8908  COPPER RIDGE LN  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17709  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17762 OAK BRIDGE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>18112  ASHTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17727 OAK BRIDGE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>9203  FESTIVAL CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9420 OAK MEADOW CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>18110 HAMDEN PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17714 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>17634 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17743  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17610  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9335  HUNTINGTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17758 OAK BRIDGE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>9401 OAK MEADOW CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17761  OAK BRIDGE ST  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17629 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9422  WILLOW COVE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9325 HUNTERS PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9320 HUNTINGTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9333  HUNTINGTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17614  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18120 ASHTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17741 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9324  HUNTINGTON PARK WAY SE Tampa, FL</t>
+  </si>
+  <si>
+    <t>9092  QUAIL CREEK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9202 FESTIVAL CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9305  HUNTINGTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9203  JUBILEE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17704  HAMPSHIRE OAK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9305  HUNTERS PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18114  ASHTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17626 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17722 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17635 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17617 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9302 HUNTINGTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9324  HUNTINGTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9310  HUNTINGTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17641  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9421  WILLOW COVE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9312  HUNTINGTON PARK WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9408  OAK MEADOW CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9202  CELEBRATION CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17717 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9302 BRAEMAR DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17631  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9337  DEER CREEK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17763  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18102 ASHTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9319 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17730  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17704 HAMPSHIRE OAK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9302 KNIGHTSBRIDGE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17629 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17608 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17633 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17754  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17707 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17771  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17639  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9319 HUNTINGTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17631 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9412 OAK MEADOW CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9405  WILLOW COVE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17737 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9317 HUNTINGTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17701 PARKWAY GREEN LN Tampa, FL</t>
+  </si>
+  <si>
+    <t>9031  QUAIL CREEK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17628  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17726  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9205 JUBILEE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17731  HAMPSHIRE OAK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9411 AZALEA RIDGE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17765 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9305 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9412 WILLOW COVE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9405  OAK MEADOW CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9315  HAMPSHIRE PARK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17707 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9302 HERITAGE OAK CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17635 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8904  COPPER RIDGE LN  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9412  AZALEA RIDGE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17630 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17704 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17719 RIDGEWAY POINT PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17722 RIDGEWAY POINT PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9312 HUNTINGTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17602  ESPRIT DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9414  AZALEA RIDGE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9310 KNIGHTSBRIDGE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9313 HUNTINGTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>18104 HAMDEN PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9313  KNIGHTSBRIDGE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17642  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9418  AZALEA RIDGE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17728 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>17702 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>17701 RIDGEWAY POINT PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17723  NATHANS DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17728 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17735 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17725 HAMPSHIRE OAK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17731 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>18101 HAMDEN PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9306 HUNTINGTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9414 WILLOW COVE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17709 EMERALD GREEN PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17756 OAK BRIDGE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>9308  KNIGHTSBRIDGE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17624 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9017  QUAIL CREEK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17732 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>18113 ASHTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17618 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17723 HAMPSHIRE OAK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9401  AZALEA RIDGE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17710 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>18101 ASHTON PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9406 OAK MEADOW CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17805  GREY BROOKE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9313 HUNTERS PARK WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17604 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9406  HUNTERS POND DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17724 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17654 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9077 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17745 ESPRIT DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17760 OAK BRIDGE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>17715 HAMPSHIRE OAK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9404 WILLOW COVE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17642 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9428  HUNTERS POND DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9455  HUNTERS POND DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9058 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17731 HAMPSHIRE OAK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9062 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9316 HERITAGE OAK CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17706 EMERALD GREEN PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17305 LOCKWOOD RIDGE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9413 OAK MEADOW CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17648 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9402 WILLOW COVE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17714 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17768 OAK BRIDGE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>9204 CELEBRATION CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9470 HUNTERS POND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9315 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9304 HERITAGE OAK CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8803 HEATHER GLEN CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9319 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9317  HERITAGE OAK CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17710 HAMPSHIRE OAK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17509 WOODTHRUSH PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9307 HERITAGE OAK CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17708 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>17615 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9416 WILLOW COVE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9311 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8749 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8711 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9315 KNIGHTSBRIDGE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9419 HUNTERS POND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9312 KNIGHTSBRIDGE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9083 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9325 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8730 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17505 WOODTHRUSH PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17940 HOLLY BROOK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9310  WELLINGTON PARK CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9039 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17720 LONG RIDGE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>17818 EAGLE TRACE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>9307 KNIGHTSBRIDGE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17951 HOLLY BROOK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17706 SHANNON OAKS CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9306  HERITAGE OAK CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9207  MEADOW LANE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17815 HICKORY MOSS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9031 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9306 KNIGHTSBRIDGE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9305 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17714  SHANNON OAKS CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17846  GREEN WILLOW DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18134  REGENTS SQUARE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9308 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17809 HICKORY MOSS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9332 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8708  BALLANTRAE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9015 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8787 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8707  HIDDEN GREEN LN  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17810  GREEN WILLOW DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9007 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17803 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9404 HUNTERS POND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17725 NATHANS DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9464 HUNTERS POND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17301 LOCKWOOD RIDGE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9420 HUNTERS POND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9450  HUNTERS POND DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9084 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17917  HOLLY BROOK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9337 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17809  RIDGEWAY CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17750 OAK BRIDGE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>9341 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8742 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18121  REGENTS SQUARE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9033 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17727 HAMPSHIRE OAK DRIVE Tampa, FL</t>
+  </si>
+  <si>
+    <t>9009 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9093 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8784 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18115  REGENTS SQUARE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9059 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9413 AZALEA RIDGE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9305  POPLAR CREEK CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9091 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8751  ASHWORTH DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8759 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9120  WOODRIDGE RUN DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8744 TANTALLON CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9065 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9101  FOXCHASE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18114 COURTNEY BREEZE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8723 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9355  WELLINGTON PARK CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9208  MEADOW LANE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9210 MEADOW LANE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>18111 COURTNEY BREEZE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9468 HUNTERS POND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17517 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9353 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9317 KNIGHTSBRIDGE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8709  ASHWORTH DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18103  REGENTS SQUARE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17523  EDINBURGH DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17808 GREY BROOKE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17820 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18153 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17808 EAGLE TRACE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>17827 OSPREY POINTE PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17829 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8708 BAY LAUREL CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9301 HERITAGE OAK CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8705 HIDDEN GREEN LN Tampa, FL</t>
+  </si>
+  <si>
+    <t>9307 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9336 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9308 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8707 HIDDEN GREEN LN Tampa, FL</t>
+  </si>
+  <si>
+    <t>9318 HERITAGE OAK CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8772 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8736 TANTALLON CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9325 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9328 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9034 QUAIL CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17818  HICKORY MOSS PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8750 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8908 COPPER RIDGE LN Tampa, FL</t>
+  </si>
+  <si>
+    <t>9322 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18136 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18151 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8703 BROADGREEN CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9115  CANBERLEY DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17821  HICKORY MOSS PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9225  HIGHLAND RIDGE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17828 GREY BROOKE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9065 QUAIL CREEK DRIVE Tampa, FL</t>
+  </si>
+  <si>
+    <t>17924  HOLLY BROOK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9311 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17831 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9313 HERITAGE OAK CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8731 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9355 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17407 HEATHER OAKS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9338 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17510 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8732 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8715 HIDDEN GREEN LN Tampa, FL</t>
+  </si>
+  <si>
+    <t>8730 TANTALLON CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18105 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9311  CYPRESS BEND DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17847 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9305 CYPRESS BEND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17712  GREY EAGLE RD  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17824  OSPREY POINTE PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8706  CYPRESS MILL CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9331 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17415  HEATHER OAKS PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9325 CYPRESS BEND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9316 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17727 GREY EAGLE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>17855 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9157  HIGHLAND RIDGE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17701  GREY EAGLE RD  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17813 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17846 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17941 HOLLY BROOK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17833 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8702 TANTALLON CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18106 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18115 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9432 HUNTERS POND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17812 EAGLE TRACE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>9346 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17724 GREY EAGLE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>9103 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17827  GREEN WILLOW DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9323 CYPRESS BEND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9206 MEADOW LANE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17705 GREY EAGLE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>17822 EAGLE TRACE ST Tampa, FL</t>
+  </si>
+  <si>
+    <t>17415 HEATHER OAKS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>8706 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17820 HICKORY MOSS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9310 CYPRESS BEND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9326 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17807 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9307 HAMPSHIRE PARK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9208 MEADOW LANE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9303 WELLINGTON PARK CRK Tampa, FL</t>
+  </si>
+  <si>
+    <t>8704 CYPRESS MILL CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17939 HOLLY BROOK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18103 COURTNEY BREEZE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9304 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17530 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18117 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9219 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9305  CYPRESS BEND DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8733  TANTALLON CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17515 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17710 GREY EAGLE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>18105 COURTNEY BREEZE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18128  COURTNEY BREEZE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17826  GREY BROOKE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9307 CYPRESS BEND DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9165 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17523 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17812 GREEN WILLOW DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8820 HEATHER GLEN CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17723 GREY EAGLE RD Tampa, FL</t>
+  </si>
+  <si>
+    <t>9150  HIGHLAND RIDGE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17515  EDINBURGH DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9327 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9302 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9342 WELLINGTON PARK CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8765 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9317 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9111  HIGHLAND RIDGE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8814 HEATHER GLEN CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>17410 HEATHER OAKS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17818 GREY BROOKE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9106 CANBERLEY DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17417 HEATHER OAKS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9114 CANBERLEY DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9110 WOODRIDGE RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9312 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9326 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8701 WINDELSTRAW WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17805 RIDGEWAY CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9106 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9108 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17521 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17822 HICKORY MOSS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>18132 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8758 ASHWORTH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8961 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9176  HIGHLAND RIDGE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9322 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17935  HOLLY BROOK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18126 COURTNEY BREEZE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9114 WOODRIDGE RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17503 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9214 MEADOW LANE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>18106 COURTNEY BREEZE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17505 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8804 HEATHER GLEN CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>18142  REGENTS SQUARE DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9108  WOODRIDGE RUN DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9204  HIGHLAND RIDGE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9166 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9112  WOODRIDGE RUN DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17807  OSPREY POINTE PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9138  HIGHLAND RIDGE WAY  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8911  MAGNOLIA CHASE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9115 WOODRIDGE RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9149 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>18133 REGENTS SQUARE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17820 GREY BROOKE DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9145 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9150 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17513 EDINBURGH DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9120 WOODRIDGE RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9338  DEER CREEK DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9167 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9138 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17815  OSPREY POINTE PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9220 PINE ISLAND CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8952  MAGNOLIA CHASE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9114 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17414 HEATHER OAKS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9156 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17823 OSPREY POINTE PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9107  WOODRIDGE RUN DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9174 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9178 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9148 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>8902 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9204 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>17802  OSPREY POINTE PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17404 HEATHER OAKS PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9112 CANBERLEY DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8928 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>17804 OSPREY POINTE PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>17822 OSPREY POINTE PL Tampa, FL</t>
+  </si>
+  <si>
+    <t>9210 PINE ISLAND CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>9338 DEER CREEK DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8908 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9168 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9118 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9205 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>18002  PINNACLE CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>17801  OSPREY POINTE PL  Tampa, FL</t>
+  </si>
+  <si>
+    <t>9124 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>8942 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9155 HIGHLAND RIDGE WAY Tampa, FL</t>
+  </si>
+  <si>
+    <t>9212 PINE ISLAND CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8945  MAGNOLIA CHASE CIR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18008 PINNACLE CT Tampa, FL</t>
+  </si>
+  <si>
+    <t>8945 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18124 LONGWATER RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9125  WOODRIDGE RUN DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>8923 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8802  FAZIO CT  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18113 LONGWATER RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>9105 WOODRIDGE RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18112 LONGWATER RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>8940 MAGNOLIA CHASE CIR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18132  LONGWATER RUN DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18110 LONGWATER RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18131 LONGWATER RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18130 LONGWATER RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18134 LONGWATER RUN DR Tampa, FL</t>
+  </si>
+  <si>
+    <t>18145  LONGWATER RUN DR  Tampa, FL</t>
+  </si>
+  <si>
+    <t>18122 LONGWATER RUN DR Tampa, FL</t>
   </si>
 </sst>
 </file>
@@ -2884,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46540,6 +47897,2439 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2813F312-253A-4048-9ECF-FB162B1612E9}">
+  <dimension ref="A1:A483"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F653672-2C74-442C-A485-E05D37785C65}">
   <dimension ref="A1:C32"/>
   <sheetViews>
